--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2360.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2360.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8393417659563689</v>
+        <v>1.010513544082642</v>
       </c>
       <c r="B1">
-        <v>1.540955638013072</v>
+        <v>2.122204303741455</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.17284631729126</v>
       </c>
       <c r="D1">
-        <v>2.137980124062677</v>
+        <v>1.381744861602783</v>
       </c>
       <c r="E1">
-        <v>1.241218686065461</v>
+        <v>1.313313961029053</v>
       </c>
     </row>
   </sheetData>
